--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T11:14:51+00:00</t>
+    <t>2024-05-23T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:15:30+00:00</t>
+    <t>2024-05-23T12:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,7 +761,7 @@
 </t>
   </si>
   <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. See also packaging.containedItem.amount (especially the long definition)</t>
+    <t>Size / Weight of the package</t>
   </si>
   <si>
     <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
@@ -981,7 +981,7 @@
 </t>
   </si>
   <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
+    <t>Delivery state of the package</t>
   </si>
   <si>
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
@@ -1148,6 +1148,9 @@
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.type</t>
+  </si>
+  <si>
+    <t>Package type container</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/packaging</t>
@@ -7927,7 +7930,7 @@
         <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>328</v>
@@ -7963,7 +7966,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8007,10 +8010,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8036,10 +8039,10 @@
         <v>340</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8047,7 +8050,7 @@
         <v>74</v>
       </c>
       <c r="Q58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>74</v>
@@ -8092,7 +8095,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8110,7 +8113,7 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8118,10 +8121,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8144,13 +8147,13 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8201,7 +8204,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8219,7 +8222,7 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8227,10 +8230,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8256,10 +8259,10 @@
         <v>173</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8289,10 +8292,10 @@
         <v>219</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8310,7 +8313,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8328,7 +8331,7 @@
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8336,10 +8339,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8365,10 +8368,10 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8398,10 +8401,10 @@
         <v>219</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8419,7 +8422,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8437,7 +8440,7 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8445,10 +8448,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8471,13 +8474,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8528,7 +8531,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8546,7 +8549,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8554,10 +8557,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8583,10 +8586,10 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8637,7 +8640,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8655,7 +8658,7 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8663,10 +8666,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8692,10 +8695,10 @@
         <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8746,7 +8749,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8764,7 +8767,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -8772,10 +8775,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8881,10 +8884,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8992,10 +8995,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9105,10 +9108,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9134,10 +9137,10 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9167,10 +9170,10 @@
         <v>219</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9188,7 +9191,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9206,7 +9209,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9214,10 +9217,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9240,13 +9243,13 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9297,7 +9300,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9315,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9323,10 +9326,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9352,10 +9355,10 @@
         <v>287</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9406,7 +9409,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9424,7 +9427,7 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9432,10 +9435,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9541,10 +9544,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9652,10 +9655,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9765,10 +9768,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9791,13 +9794,13 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9848,7 +9851,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -9866,7 +9869,7 @@
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -9874,10 +9877,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9903,10 +9906,10 @@
         <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9957,7 +9960,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9975,7 +9978,7 @@
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -9983,10 +9986,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10012,10 +10015,10 @@
         <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10066,7 +10069,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10084,7 +10087,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10092,10 +10095,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10121,10 +10124,10 @@
         <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10175,7 +10178,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:44:01+00:00</t>
+    <t>2024-05-23T12:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:55:33+00:00</t>
+    <t>2024-05-24T07:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
